--- a/database/seeders/Produk Bengkel (1).xlsx
+++ b/database/seeders/Produk Bengkel (1).xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bengkel Online\database\seeders\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1CD989-A152-418D-BA6C-4C5966B28F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="items"/>
-    <sheet r:id="rId2" sheetId="2" name="item_store"/>
+    <sheet name="items" sheetId="1" r:id="rId1"/>
+    <sheet name="item_store" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">item_store!$A$1:$C$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">items!$A$1:$L$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">item_store!$A$1:$C$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">items!$A$1:$L$65</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="226">
   <si>
     <t>item_id</t>
   </si>
@@ -174,9 +180,6 @@
     <t>&lt;p&gt;Shockbreaker belakang untuk motor Supra / Supra x / Supra Fit merk Federal&lt;br&gt;Kualitas produk tidak perlu diragukan&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Kategori: Shockbreaker&lt;br&gt;Berat: 1,6 kilogram&lt;br&gt;Asal Barang: Lokal&lt;br&gt;Brand: Honda &lt;/p&gt;</t>
-  </si>
-  <si>
     <t>product_image/9.jpg</t>
   </si>
   <si>
@@ -655,13 +658,57 @@
   </si>
   <si>
     <t>product_image/64.jpg</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kategori: Exhaust&lt;br&gt;Berat: 3 kilogram&lt;br&gt;Asal Barang: Lokal&lt;br&gt;Brand: Lainya &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kategori: Electronics&lt;br&gt;Berat: 900 gram&lt;br&gt;Asal Barang: Lokal&lt;br&gt;Brand: Lainya &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kategori: Oil&lt;br&gt;Berat: 900 gram&lt;br&gt;Asal Barang: Lokal&lt;br&gt;Brand: Lainya &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kategori: Suspension&lt;br&gt;Berat: 1,6 kilogram&lt;br&gt;Asal Barang: Lokal&lt;br&gt;Brand: Honda &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kategori: Tools&lt;br&gt;Berat: 4 kilogram&lt;br&gt;Asal Barang: Lokal&lt;br&gt;Brand: Lainya &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kategori: Wheels&lt;br&gt;Berat: 6 kilogram&lt;br&gt;Asal Barang: Lokal&lt;br&gt;Brand: Lainya &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;VANBELT HONDA KZL&lt;br&gt;KUALITAS ASLI ORIGINAL HONDA AHM PRESISI ANTI SELIP AWET DAN DIJAMIN MANTAP&lt;br&gt;UNTUK MOTOR :&lt;br&gt;BEAT FI&lt;br&gt;SCOOPY FI&lt;br&gt;SPACY FI&lt;br&gt;VARIO 110 FI&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Knalpot Racing Motor CLD Racing Suzuki Satria F150 C2 Monster&lt;br&gt;Bahan Stainless Steel&lt;br&gt;Untuk Suzuki Satria F150/ Satria FU&lt;br&gt;Type Monster&lt;br&gt;Kelengkapan&lt;br&gt;Satu set knalpot ( Full System exhaust)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Knalpot Racing R9 Misano SS Black Series&lt;br&gt;Untuk motor :&lt;br&gt;Honda :&lt;br&gt;- Beat Fi / Beat EsP / Beat Pop&lt;br&gt;- Scoopy Fi &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;OIL OLI MESIN MOTOR 4T YAMALUBE SILVER 20W-40 800ML 0.8L&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Oli MPX2 untuk motor matic honda&lt;br&gt;Untuk Matic (Spesifikasi SAE:10W-30, API-SL, JASO:MB) Diformulasikan oleh Honda R&amp;D Japan dengan performa lubrikasi andal untuk melindungi sepeda motor Honda menjadi lebih irit namun bertenaga. Sangat hemat dengan penggantian yang lebih lama dan sekaligus mengurangi dampak pencemaran lingkungan.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Oli pelumas Shell 0.8L dengan formula Shell Active Cleansing Technology yang berguna untuk membantu mencegah penggumpalan partikel kotoran yang membentuk endapan di mesin motor. Membuat mesin lebih bertenaga &amp; responsif, memperhalus suara mesin &amp; mengurangi getaran pada mesin, serta dapat melindungi &amp; memperpanjang usia mesin Motor Anda&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ban Tubles Motor Matic ring 14&lt;br&gt;Ring 14 bisa digunakan untuk motor matic :&lt;br&gt;- Honda Vario&lt;br&gt;- Honda Beat&lt;br&gt;- Yamaha Mio&lt;br&gt;- Spacy&lt;br&gt;- soul GT &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Pegangan obeng dapat memenuhi kepala batch (kata lintas kata T plum blossom socket kepala hex batang ekstensi universal joint dapat menerima bending bar)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kelengkapan Produk :&lt;br&gt;- 14 buah mata sok 1/4" ukuran mm 4 - 4,5 - 5 - 5,5 - 6 - 6,5 - 7 - 8 - 9 - 10 - 11 - 12 - 13 - 14 mm&lt;br&gt;- 2 buah sambungan sok ukuran 1/4" panjang 2" dan 4"&lt;br&gt;- 1 buah sambungan sok fleksibel ukuran 1/4"&lt;br&gt;- 1 buah gagang sok yang dapat digeser ukuran 1/4"&lt;br&gt;- 1 buah gagang ratchet bolak balik ukuran 1/4"&lt;br&gt;- 1 buah gagang sok obeng ukuran 1/4" panjang 6" &lt;/p&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -712,67 +759,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -783,10 +823,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -824,71 +864,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -916,7 +956,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -939,11 +979,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -952,13 +992,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -968,7 +1008,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -977,7 +1017,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -986,7 +1026,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -994,10 +1034,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1062,32 +1102,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="G52" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="7.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="88.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="41.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="56.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="16" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="7.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1126,7 +1168,7 @@
       </c>
       <c r="M1" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1165,7 +1207,7 @@
       </c>
       <c r="M2" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1204,7 +1246,7 @@
       </c>
       <c r="M3" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1243,7 +1285,7 @@
       </c>
       <c r="M4" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1282,7 +1324,7 @@
       </c>
       <c r="M5" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1321,7 +1363,7 @@
       </c>
       <c r="M6" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1360,7 +1402,7 @@
       </c>
       <c r="M7" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1399,7 +1441,7 @@
       </c>
       <c r="M8" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1438,7 +1480,7 @@
       </c>
       <c r="M9" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1461,13 +1503,13 @@
         <v>50</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="I10" s="3">
         <v>175000</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10" s="10">
         <v>44739.5</v>
@@ -1477,7 +1519,7 @@
       </c>
       <c r="M10" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1488,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>49</v>
@@ -1499,53 +1541,53 @@
       <c r="G11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>51</v>
+      <c r="H11" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="I11" s="3">
         <v>170000</v>
       </c>
       <c r="J11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="10">
+        <v>44739.5</v>
+      </c>
+      <c r="L11" s="10">
+        <v>44739.5</v>
+      </c>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="K11" s="10">
-        <v>44739.5</v>
-      </c>
-      <c r="L11" s="10">
-        <v>44739.5</v>
-      </c>
-      <c r="M11" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>51</v>
+      <c r="H12" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="I12" s="3">
         <v>85000</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K12" s="10">
         <v>44739.5</v>
@@ -1555,7 +1597,7 @@
       </c>
       <c r="M12" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1566,25 +1608,25 @@
         <v>2</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="I13" s="3">
         <v>90000</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K13" s="10">
         <v>44739.5</v>
@@ -1594,7 +1636,7 @@
       </c>
       <c r="M13" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1605,25 +1647,25 @@
         <v>2</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>51</v>
+      <c r="H14" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="I14" s="3">
         <v>135000</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" s="10">
         <v>44739.5</v>
@@ -1633,7 +1675,7 @@
       </c>
       <c r="M14" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1644,25 +1686,25 @@
         <v>2</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>49</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>51</v>
+      <c r="H15" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="I15" s="3">
         <v>160000</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K15" s="10">
         <v>44739.5</v>
@@ -1672,7 +1714,7 @@
       </c>
       <c r="M15" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1683,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>49</v>
@@ -1692,16 +1734,16 @@
         <v>31</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="I16" s="3">
         <v>280000</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K16" s="10">
         <v>44739.5</v>
@@ -1711,7 +1753,7 @@
       </c>
       <c r="M16" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1722,25 +1764,25 @@
         <v>2</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="I17" s="3">
         <v>158000</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K17" s="10">
         <v>44739.5</v>
@@ -1750,7 +1792,7 @@
       </c>
       <c r="M17" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1761,25 +1803,25 @@
         <v>2</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="H18" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="I18" s="3">
         <v>140000</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K18" s="10">
         <v>44739.5</v>
@@ -1789,7 +1831,7 @@
       </c>
       <c r="M18" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1800,25 +1842,25 @@
         <v>2</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="H19" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I19" s="3">
         <v>58800</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K19" s="10">
         <v>44739.5</v>
@@ -1828,7 +1870,7 @@
       </c>
       <c r="M19" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1839,25 +1881,25 @@
         <v>2</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="G20" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I20" s="3">
         <v>53000</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K20" s="10">
         <v>44739.5</v>
@@ -1867,7 +1909,7 @@
       </c>
       <c r="M20" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1878,25 +1920,25 @@
         <v>2</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>70</v>
+        <v>217</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I21" s="3">
         <v>109000</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K21" s="10">
         <v>44739.5</v>
@@ -1906,7 +1948,7 @@
       </c>
       <c r="M21" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1917,25 +1959,25 @@
         <v>2</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I22" s="3">
         <v>34500</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K22" s="10">
         <v>44739.5</v>
@@ -1945,7 +1987,7 @@
       </c>
       <c r="M22" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1956,25 +1998,25 @@
         <v>2</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="G23" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I23" s="3">
         <v>45000</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K23" s="10">
         <v>44739.5</v>
@@ -1984,7 +2026,7 @@
       </c>
       <c r="M23" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1995,25 +2037,25 @@
         <v>2</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="G24" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="3">
         <v>50500</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K24" s="10">
         <v>44739.5</v>
@@ -2023,7 +2065,7 @@
       </c>
       <c r="M24" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2034,25 +2076,25 @@
         <v>2</v>
       </c>
       <c r="D25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="G25" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="3">
         <v>120000</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K25" s="10">
         <v>44739.5</v>
@@ -2062,7 +2104,7 @@
       </c>
       <c r="M25" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2073,25 +2115,25 @@
         <v>2</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="G26" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="I26" s="3">
         <v>35000</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K26" s="10">
         <v>44739.5</v>
@@ -2101,7 +2143,7 @@
       </c>
       <c r="M26" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2112,25 +2154,25 @@
         <v>2</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="G27" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="I27" s="3">
         <v>44000</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K27" s="10">
         <v>44739.5</v>
@@ -2140,7 +2182,7 @@
       </c>
       <c r="M27" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2151,25 +2193,25 @@
         <v>2</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="G28" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="I28" s="3">
         <v>90000</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K28" s="10">
         <v>44739.5</v>
@@ -2179,7 +2221,7 @@
       </c>
       <c r="M28" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2190,25 +2232,25 @@
         <v>2</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>110</v>
-      </c>
       <c r="G29" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="I29" s="3">
         <v>75000</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K29" s="10">
         <v>44739.5</v>
@@ -2218,7 +2260,7 @@
       </c>
       <c r="M29" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2229,25 +2271,25 @@
         <v>2</v>
       </c>
       <c r="D30" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="G30" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="I30" s="3">
         <v>130000</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K30" s="10">
         <v>44739.5</v>
@@ -2257,7 +2299,7 @@
       </c>
       <c r="M30" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2268,25 +2310,25 @@
         <v>2</v>
       </c>
       <c r="D31" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>116</v>
-      </c>
       <c r="G31" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="I31" s="3">
         <v>726000</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K31" s="10">
         <v>44739.5</v>
@@ -2296,7 +2338,7 @@
       </c>
       <c r="M31" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2307,25 +2349,25 @@
         <v>2</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="G32" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="I32" s="3">
         <v>120000</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K32" s="10">
         <v>44739.5</v>
@@ -2335,7 +2377,7 @@
       </c>
       <c r="M32" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2346,25 +2388,25 @@
         <v>2</v>
       </c>
       <c r="D33" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>122</v>
-      </c>
       <c r="G33" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="I33" s="3">
         <v>520000</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K33" s="10">
         <v>44739.5</v>
@@ -2374,7 +2416,7 @@
       </c>
       <c r="M33" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2385,25 +2427,25 @@
         <v>2</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="F34" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="G34" s="12" t="s">
-        <v>70</v>
+        <v>218</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="I34" s="3">
         <v>70000</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K34" s="10">
         <v>44739.5</v>
@@ -2413,7 +2455,7 @@
       </c>
       <c r="M34" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2424,25 +2466,25 @@
         <v>2</v>
       </c>
       <c r="D35" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="G35" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>78</v>
+        <v>219</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="I35" s="3">
         <v>100000</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K35" s="10">
         <v>44739.5</v>
@@ -2452,7 +2494,7 @@
       </c>
       <c r="M35" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2463,25 +2505,25 @@
         <v>2</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="I36" s="3">
         <v>87000</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K36" s="10">
         <v>44739.5</v>
@@ -2491,7 +2533,7 @@
       </c>
       <c r="M36" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2502,25 +2544,25 @@
         <v>2</v>
       </c>
       <c r="D37" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>134</v>
-      </c>
       <c r="G37" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="I37" s="3">
         <v>120000</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K37" s="10">
         <v>44739.5</v>
@@ -2530,7 +2572,7 @@
       </c>
       <c r="M37" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2541,25 +2583,25 @@
         <v>2</v>
       </c>
       <c r="D38" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>137</v>
-      </c>
       <c r="G38" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="I38" s="3">
         <v>110000</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K38" s="10">
         <v>44739.5</v>
@@ -2569,7 +2611,7 @@
       </c>
       <c r="M38" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2580,25 +2622,25 @@
         <v>2</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="I39" s="3">
         <v>110000</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K39" s="10">
         <v>44739.5</v>
@@ -2608,7 +2650,7 @@
       </c>
       <c r="M39" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2619,25 +2661,25 @@
         <v>2</v>
       </c>
       <c r="D40" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>142</v>
-      </c>
       <c r="G40" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="I40" s="3">
         <v>70000</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K40" s="10">
         <v>44739.5</v>
@@ -2647,7 +2689,7 @@
       </c>
       <c r="M40" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2658,25 +2700,25 @@
         <v>2</v>
       </c>
       <c r="D41" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="G41" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="I41" s="3">
         <v>90000</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K41" s="10">
         <v>44739.5</v>
@@ -2686,7 +2728,7 @@
       </c>
       <c r="M41" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2697,25 +2739,25 @@
         <v>2</v>
       </c>
       <c r="D42" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="F42" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="G42" s="12" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="I42" s="3">
         <v>40000</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K42" s="10">
         <v>44739.5</v>
@@ -2725,7 +2767,7 @@
       </c>
       <c r="M42" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2736,25 +2778,25 @@
         <v>2</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>78</v>
+        <v>221</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="I43" s="3">
         <v>40000</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K43" s="10">
         <v>44739.5</v>
@@ -2764,7 +2806,7 @@
       </c>
       <c r="M43" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2775,25 +2817,25 @@
         <v>2</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="G44" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>78</v>
+        <v>222</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="I44" s="3">
         <v>38000</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K44" s="10">
         <v>44739.5</v>
@@ -2803,7 +2845,7 @@
       </c>
       <c r="M44" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2814,25 +2856,25 @@
         <v>2</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="I45" s="3">
         <v>38800</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K45" s="10">
         <v>44739.5</v>
@@ -2842,7 +2884,7 @@
       </c>
       <c r="M45" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2853,25 +2895,25 @@
         <v>2</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="I46" s="3">
         <v>30000</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K46" s="10">
         <v>44739.5</v>
@@ -2881,7 +2923,7 @@
       </c>
       <c r="M46" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2892,25 +2934,25 @@
         <v>2</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E47" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="G47" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="I47" s="3">
         <v>33500</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K47" s="10">
         <v>44739.5</v>
@@ -2920,7 +2962,7 @@
       </c>
       <c r="M47" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2931,25 +2973,25 @@
         <v>2</v>
       </c>
       <c r="D48" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>163</v>
-      </c>
       <c r="G48" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="I48" s="3">
         <v>30000</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K48" s="10">
         <v>44739.5</v>
@@ -2959,7 +3001,7 @@
       </c>
       <c r="M48" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2970,25 +3012,25 @@
         <v>2</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E49" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="G49" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="I49" s="3">
         <v>30500</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K49" s="10">
         <v>44739.5</v>
@@ -2998,7 +3040,7 @@
       </c>
       <c r="M49" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3009,25 +3051,25 @@
         <v>2</v>
       </c>
       <c r="D50" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>168</v>
-      </c>
       <c r="F50" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="I50" s="3">
         <v>40500</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K50" s="10">
         <v>44739.5</v>
@@ -3037,7 +3079,7 @@
       </c>
       <c r="M50" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3048,25 +3090,25 @@
         <v>2</v>
       </c>
       <c r="D51" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>171</v>
-      </c>
       <c r="G51" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>78</v>
+        <v>223</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="I51" s="3">
         <v>36500</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K51" s="10">
         <v>44739.5</v>
@@ -3076,7 +3118,7 @@
       </c>
       <c r="M51" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3087,25 +3129,25 @@
         <v>2</v>
       </c>
       <c r="D52" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>174</v>
-      </c>
       <c r="G52" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="I52" s="3">
         <v>20000</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K52" s="10">
         <v>44739.5</v>
@@ -3115,7 +3157,7 @@
       </c>
       <c r="M52" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3126,25 +3168,25 @@
         <v>2</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>78</v>
+        <v>223</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="I53" s="3">
         <v>40000</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K53" s="10">
         <v>44739.5</v>
@@ -3154,7 +3196,7 @@
       </c>
       <c r="M53" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3165,25 +3207,25 @@
         <v>2</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="I54" s="3">
         <v>20000</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K54" s="10">
         <v>44739.5</v>
@@ -3193,7 +3235,7 @@
       </c>
       <c r="M54" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3204,25 +3246,25 @@
         <v>2</v>
       </c>
       <c r="D55" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F55" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E55" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>181</v>
-      </c>
       <c r="G55" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="I55" s="3">
         <v>99000</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K55" s="10">
         <v>44739.5</v>
@@ -3232,7 +3274,7 @@
       </c>
       <c r="M55" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3243,25 +3285,25 @@
         <v>2</v>
       </c>
       <c r="D56" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>184</v>
-      </c>
       <c r="G56" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="I56" s="3">
         <v>210000</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K56" s="10">
         <v>44739.5</v>
@@ -3271,7 +3313,7 @@
       </c>
       <c r="M56" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3282,25 +3324,25 @@
         <v>2</v>
       </c>
       <c r="D57" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F57" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E57" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>187</v>
-      </c>
       <c r="G57" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="I57" s="3">
         <v>65000</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K57" s="10">
         <v>44739.5</v>
@@ -3310,7 +3352,7 @@
       </c>
       <c r="M57" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3321,25 +3363,25 @@
         <v>2</v>
       </c>
       <c r="D58" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>190</v>
-      </c>
       <c r="F58" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="I58" s="3">
         <v>160000</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K58" s="10">
         <v>44739.5</v>
@@ -3349,7 +3391,7 @@
       </c>
       <c r="M58" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3360,25 +3402,25 @@
         <v>2</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="I59" s="3">
         <v>32000</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K59" s="10">
         <v>44739.5</v>
@@ -3388,7 +3430,7 @@
       </c>
       <c r="M59" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3399,25 +3441,25 @@
         <v>2</v>
       </c>
       <c r="D60" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F60" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E60" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="G60" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="I60" s="3">
         <v>162500</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K60" s="10">
         <v>44739.5</v>
@@ -3427,7 +3469,7 @@
       </c>
       <c r="M60" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3438,25 +3480,25 @@
         <v>2</v>
       </c>
       <c r="D61" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>198</v>
-      </c>
       <c r="G61" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>78</v>
+        <v>224</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="I61" s="3">
         <v>398250</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K61" s="10">
         <v>44739.5</v>
@@ -3466,7 +3508,7 @@
       </c>
       <c r="M61" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3477,25 +3519,25 @@
         <v>2</v>
       </c>
       <c r="D62" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F62" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E62" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>201</v>
-      </c>
       <c r="G62" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="I62" s="3">
         <v>330000</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K62" s="10">
         <v>44739.5</v>
@@ -3505,7 +3547,7 @@
       </c>
       <c r="M62" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3516,25 +3558,25 @@
         <v>2</v>
       </c>
       <c r="D63" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F63" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E63" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>204</v>
-      </c>
       <c r="G63" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="I63" s="3">
         <v>15000</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K63" s="10">
         <v>44739.5</v>
@@ -3544,7 +3586,7 @@
       </c>
       <c r="M63" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3555,25 +3597,25 @@
         <v>2</v>
       </c>
       <c r="D64" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F64" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>207</v>
-      </c>
       <c r="G64" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>78</v>
+        <v>225</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="I64" s="3">
         <v>90000</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K64" s="10">
         <v>44739.5</v>
@@ -3583,7 +3625,7 @@
       </c>
       <c r="M64" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3594,25 +3636,25 @@
         <v>2</v>
       </c>
       <c r="D65" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E65" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>210</v>
-      </c>
       <c r="G65" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="I65" s="3">
         <v>23000</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K65" s="10">
         <v>44739.5</v>
@@ -3623,27 +3665,30 @@
       <c r="M65" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L65" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C260"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="A12:B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3654,7 +3699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3665,7 +3710,7 @@
         <v>324000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3676,7 +3721,7 @@
         <v>1125000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3687,7 +3732,7 @@
         <v>175600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3698,7 +3743,7 @@
         <v>88900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3709,7 +3754,7 @@
         <v>1010000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3720,7 +3765,7 @@
         <v>238000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3731,7 +3776,7 @@
         <v>94500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3742,7 +3787,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3753,7 +3798,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3764,7 +3809,7 @@
         <v>170000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3775,7 +3820,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3786,7 +3831,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3797,7 +3842,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3808,7 +3853,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3819,7 +3864,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3830,7 +3875,7 @@
         <v>158000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3841,7 +3886,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3852,7 +3897,7 @@
         <v>58800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3863,7 +3908,7 @@
         <v>53000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3874,7 +3919,7 @@
         <v>109000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3885,7 +3930,7 @@
         <v>34500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3896,7 +3941,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3907,7 +3952,7 @@
         <v>50500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3918,7 +3963,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3929,7 +3974,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3940,7 +3985,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3951,7 +3996,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3962,7 +4007,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3973,7 +4018,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3984,7 +4029,7 @@
         <v>726000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3995,7 +4040,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4006,7 +4051,7 @@
         <v>520000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4017,7 +4062,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4028,7 +4073,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4039,7 +4084,7 @@
         <v>87000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4050,7 +4095,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4061,7 +4106,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4072,7 +4117,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4083,7 +4128,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4094,7 +4139,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -4105,7 +4150,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4116,7 +4161,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -4127,7 +4172,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -4138,7 +4183,7 @@
         <v>38800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -4149,7 +4194,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -4160,7 +4205,7 @@
         <v>33500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -4171,7 +4216,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -4182,7 +4227,7 @@
         <v>30500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -4193,7 +4238,7 @@
         <v>40500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -4204,7 +4249,7 @@
         <v>36500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -4215,7 +4260,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -4226,7 +4271,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -4237,7 +4282,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4248,7 +4293,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4259,7 +4304,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -4270,7 +4315,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -4281,7 +4326,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -4292,7 +4337,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -4303,7 +4348,7 @@
         <v>162500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -4314,7 +4359,7 @@
         <v>398250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -4325,7 +4370,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -4336,7 +4381,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -4347,7 +4392,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -4358,7 +4403,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -4369,7 +4414,7 @@
         <v>339000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>2</v>
       </c>
@@ -4380,7 +4425,7 @@
         <v>1140000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>3</v>
       </c>
@@ -4391,7 +4436,7 @@
         <v>190600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>4</v>
       </c>
@@ -4402,7 +4447,7 @@
         <v>103900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>5</v>
       </c>
@@ -4413,7 +4458,7 @@
         <v>1025000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>6</v>
       </c>
@@ -4424,7 +4469,7 @@
         <v>253000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>7</v>
       </c>
@@ -4435,7 +4480,7 @@
         <v>109500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>8</v>
       </c>
@@ -4446,7 +4491,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>9</v>
       </c>
@@ -4457,7 +4502,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>10</v>
       </c>
@@ -4468,7 +4513,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>11</v>
       </c>
@@ -4479,7 +4524,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>12</v>
       </c>
@@ -4490,7 +4535,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>13</v>
       </c>
@@ -4501,7 +4546,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>14</v>
       </c>
@@ -4512,7 +4557,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>15</v>
       </c>
@@ -4523,7 +4568,7 @@
         <v>295000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>16</v>
       </c>
@@ -4534,7 +4579,7 @@
         <v>173000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>17</v>
       </c>
@@ -4545,7 +4590,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>18</v>
       </c>
@@ -4556,7 +4601,7 @@
         <v>73800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>19</v>
       </c>
@@ -4567,7 +4612,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>20</v>
       </c>
@@ -4578,7 +4623,7 @@
         <v>124000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>21</v>
       </c>
@@ -4589,7 +4634,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>22</v>
       </c>
@@ -4600,7 +4645,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>23</v>
       </c>
@@ -4611,7 +4656,7 @@
         <v>65500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>24</v>
       </c>
@@ -4622,7 +4667,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>25</v>
       </c>
@@ -4633,7 +4678,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>26</v>
       </c>
@@ -4644,7 +4689,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>27</v>
       </c>
@@ -4655,7 +4700,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>28</v>
       </c>
@@ -4666,7 +4711,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>29</v>
       </c>
@@ -4677,7 +4722,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>30</v>
       </c>
@@ -4688,7 +4733,7 @@
         <v>741000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>31</v>
       </c>
@@ -4699,7 +4744,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>32</v>
       </c>
@@ -4710,7 +4755,7 @@
         <v>535000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>33</v>
       </c>
@@ -4721,7 +4766,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>34</v>
       </c>
@@ -4732,7 +4777,7 @@
         <v>115000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>35</v>
       </c>
@@ -4743,7 +4788,7 @@
         <v>102000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>36</v>
       </c>
@@ -4754,7 +4799,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>37</v>
       </c>
@@ -4765,7 +4810,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>38</v>
       </c>
@@ -4776,7 +4821,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>39</v>
       </c>
@@ -4787,7 +4832,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>40</v>
       </c>
@@ -4798,7 +4843,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>41</v>
       </c>
@@ -4809,7 +4854,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>42</v>
       </c>
@@ -4820,7 +4865,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>43</v>
       </c>
@@ -4831,7 +4876,7 @@
         <v>53000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>44</v>
       </c>
@@ -4842,7 +4887,7 @@
         <v>53800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>45</v>
       </c>
@@ -4853,7 +4898,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>46</v>
       </c>
@@ -4864,7 +4909,7 @@
         <v>48500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>47</v>
       </c>
@@ -4875,7 +4920,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>48</v>
       </c>
@@ -4886,7 +4931,7 @@
         <v>45500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>49</v>
       </c>
@@ -4897,7 +4942,7 @@
         <v>55500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row r="115" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>50</v>
       </c>
@@ -4908,7 +4953,7 @@
         <v>51500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>51</v>
       </c>
@@ -4919,7 +4964,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>52</v>
       </c>
@@ -4930,7 +4975,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row r="118" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>53</v>
       </c>
@@ -4941,7 +4986,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>54</v>
       </c>
@@ -4952,7 +4997,7 @@
         <v>114000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row r="120" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>55</v>
       </c>
@@ -4963,7 +5008,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row r="121" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>56</v>
       </c>
@@ -4974,7 +5019,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row r="122" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>57</v>
       </c>
@@ -4985,7 +5030,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row r="123" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>58</v>
       </c>
@@ -4996,7 +5041,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>59</v>
       </c>
@@ -5007,7 +5052,7 @@
         <v>177500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>60</v>
       </c>
@@ -5018,7 +5063,7 @@
         <v>413250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row r="126" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>61</v>
       </c>
@@ -5029,7 +5074,7 @@
         <v>345000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row r="127" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>62</v>
       </c>
@@ -5040,7 +5085,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row r="128" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>63</v>
       </c>
@@ -5051,7 +5096,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row r="129" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>64</v>
       </c>
@@ -5062,7 +5107,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row r="130" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>1</v>
       </c>
@@ -5073,7 +5118,7 @@
         <v>301000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row r="131" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>2</v>
       </c>
@@ -5084,7 +5129,7 @@
         <v>1102000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row r="132" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>3</v>
       </c>
@@ -5095,7 +5140,7 @@
         <v>152600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    <row r="133" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>4</v>
       </c>
@@ -5106,7 +5151,7 @@
         <v>65900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+    <row r="134" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>5</v>
       </c>
@@ -5117,7 +5162,7 @@
         <v>987000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row r="135" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>6</v>
       </c>
@@ -5128,7 +5173,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+    <row r="136" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>7</v>
       </c>
@@ -5139,7 +5184,7 @@
         <v>71500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    <row r="137" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>8</v>
       </c>
@@ -5150,7 +5195,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+    <row r="138" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>9</v>
       </c>
@@ -5161,7 +5206,7 @@
         <v>152000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+    <row r="139" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>10</v>
       </c>
@@ -5172,7 +5217,7 @@
         <v>147000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+    <row r="140" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>11</v>
       </c>
@@ -5183,7 +5228,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+    <row r="141" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>12</v>
       </c>
@@ -5194,7 +5239,7 @@
         <v>67000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+    <row r="142" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>13</v>
       </c>
@@ -5205,7 +5250,7 @@
         <v>112000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+    <row r="143" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>14</v>
       </c>
@@ -5216,7 +5261,7 @@
         <v>137000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+    <row r="144" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>15</v>
       </c>
@@ -5227,7 +5272,7 @@
         <v>257000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+    <row r="145" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>16</v>
       </c>
@@ -5238,7 +5283,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+    <row r="146" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>17</v>
       </c>
@@ -5249,7 +5294,7 @@
         <v>117000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+    <row r="147" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>18</v>
       </c>
@@ -5260,7 +5305,7 @@
         <v>35800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+    <row r="148" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>19</v>
       </c>
@@ -5271,7 +5316,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+    <row r="149" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>20</v>
       </c>
@@ -5282,7 +5327,7 @@
         <v>86000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+    <row r="150" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>21</v>
       </c>
@@ -5293,7 +5338,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+    <row r="151" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>22</v>
       </c>
@@ -5304,7 +5349,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+    <row r="152" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>23</v>
       </c>
@@ -5315,7 +5360,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+    <row r="153" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>24</v>
       </c>
@@ -5326,7 +5371,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+    <row r="154" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>25</v>
       </c>
@@ -5337,7 +5382,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+    <row r="155" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>26</v>
       </c>
@@ -5348,7 +5393,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+    <row r="156" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>27</v>
       </c>
@@ -5359,7 +5404,7 @@
         <v>67000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+    <row r="157" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>28</v>
       </c>
@@ -5370,7 +5415,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+    <row r="158" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>29</v>
       </c>
@@ -5381,7 +5426,7 @@
         <v>107000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+    <row r="159" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>30</v>
       </c>
@@ -5392,7 +5437,7 @@
         <v>703000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+    <row r="160" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>31</v>
       </c>
@@ -5403,7 +5448,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+    <row r="161" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>32</v>
       </c>
@@ -5414,7 +5459,7 @@
         <v>497000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+    <row r="162" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>33</v>
       </c>
@@ -5425,7 +5470,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+    <row r="163" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>34</v>
       </c>
@@ -5436,7 +5481,7 @@
         <v>77000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+    <row r="164" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>35</v>
       </c>
@@ -5447,7 +5492,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+    <row r="165" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>36</v>
       </c>
@@ -5458,7 +5503,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+    <row r="166" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>37</v>
       </c>
@@ -5469,7 +5514,7 @@
         <v>87000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+    <row r="167" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>38</v>
       </c>
@@ -5480,7 +5525,7 @@
         <v>87000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+    <row r="168" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>39</v>
       </c>
@@ -5491,7 +5536,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+    <row r="169" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>40</v>
       </c>
@@ -5502,7 +5547,7 @@
         <v>67000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+    <row r="170" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>41</v>
       </c>
@@ -5513,7 +5558,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+    <row r="171" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>42</v>
       </c>
@@ -5524,7 +5569,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+    <row r="172" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>43</v>
       </c>
@@ -5535,7 +5580,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+    <row r="173" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>44</v>
       </c>
@@ -5546,7 +5591,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+    <row r="174" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>45</v>
       </c>
@@ -5557,7 +5602,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+    <row r="175" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>46</v>
       </c>
@@ -5568,7 +5613,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+    <row r="176" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>47</v>
       </c>
@@ -5579,7 +5624,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+    <row r="177" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>48</v>
       </c>
@@ -5590,7 +5635,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+    <row r="178" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>49</v>
       </c>
@@ -5601,7 +5646,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+    <row r="179" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>50</v>
       </c>
@@ -5612,7 +5657,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+    <row r="180" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>51</v>
       </c>
@@ -5623,7 +5668,7 @@
         <v>37000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+    <row r="181" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>52</v>
       </c>
@@ -5634,7 +5679,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+    <row r="182" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>53</v>
       </c>
@@ -5645,7 +5690,7 @@
         <v>37000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+    <row r="183" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>54</v>
       </c>
@@ -5656,7 +5701,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+    <row r="184" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>55</v>
       </c>
@@ -5667,7 +5712,7 @@
         <v>187000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+    <row r="185" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>56</v>
       </c>
@@ -5678,7 +5723,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+    <row r="186" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>57</v>
       </c>
@@ -5689,7 +5734,7 @@
         <v>137000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+    <row r="187" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>58</v>
       </c>
@@ -5700,7 +5745,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+    <row r="188" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>59</v>
       </c>
@@ -5711,7 +5756,7 @@
         <v>139500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+    <row r="189" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>60</v>
       </c>
@@ -5722,7 +5767,7 @@
         <v>375250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+    <row r="190" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>61</v>
       </c>
@@ -5733,7 +5778,7 @@
         <v>307000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+    <row r="191" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>62</v>
       </c>
@@ -5744,7 +5789,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+    <row r="192" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>63</v>
       </c>
@@ -5755,7 +5800,7 @@
         <v>67000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+    <row r="193" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>64</v>
       </c>
@@ -5766,7 +5811,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+    <row r="194" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>1</v>
       </c>
@@ -5777,7 +5822,7 @@
         <v>338000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+    <row r="195" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>2</v>
       </c>
@@ -5788,7 +5833,7 @@
         <v>1139000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+    <row r="196" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>3</v>
       </c>
@@ -5799,7 +5844,7 @@
         <v>189600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+    <row r="197" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>4</v>
       </c>
@@ -5810,7 +5855,7 @@
         <v>102900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+    <row r="198" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>5</v>
       </c>
@@ -5821,7 +5866,7 @@
         <v>1024000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+    <row r="199" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>6</v>
       </c>
@@ -5832,7 +5877,7 @@
         <v>252000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+    <row r="200" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>7</v>
       </c>
@@ -5843,7 +5888,7 @@
         <v>108500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+    <row r="201" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>8</v>
       </c>
@@ -5854,7 +5899,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+    <row r="202" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>9</v>
       </c>
@@ -5865,7 +5910,7 @@
         <v>189000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
+    <row r="203" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>10</v>
       </c>
@@ -5876,7 +5921,7 @@
         <v>184000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+    <row r="204" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>11</v>
       </c>
@@ -5887,7 +5932,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
+    <row r="205" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>12</v>
       </c>
@@ -5898,7 +5943,7 @@
         <v>104000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
+    <row r="206" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>13</v>
       </c>
@@ -5909,7 +5954,7 @@
         <v>149000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
+    <row r="207" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>14</v>
       </c>
@@ -5920,7 +5965,7 @@
         <v>174000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
+    <row r="208" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>15</v>
       </c>
@@ -5931,7 +5976,7 @@
         <v>294000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
+    <row r="209" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>16</v>
       </c>
@@ -5942,7 +5987,7 @@
         <v>172000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
+    <row r="210" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>17</v>
       </c>
@@ -5953,7 +5998,7 @@
         <v>154000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
+    <row r="211" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>18</v>
       </c>
@@ -5964,7 +6009,7 @@
         <v>72800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
+    <row r="212" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>19</v>
       </c>
@@ -5975,7 +6020,7 @@
         <v>67000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
+    <row r="213" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>20</v>
       </c>
@@ -5986,7 +6031,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
+    <row r="214" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>21</v>
       </c>
@@ -5997,7 +6042,7 @@
         <v>48500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
+    <row r="215" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>22</v>
       </c>
@@ -6008,7 +6053,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
+    <row r="216" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>23</v>
       </c>
@@ -6019,7 +6064,7 @@
         <v>64500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
+    <row r="217" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>24</v>
       </c>
@@ -6030,7 +6075,7 @@
         <v>134000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
+    <row r="218" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>25</v>
       </c>
@@ -6041,7 +6086,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
+    <row r="219" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>26</v>
       </c>
@@ -6052,7 +6097,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
+    <row r="220" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>27</v>
       </c>
@@ -6063,7 +6108,7 @@
         <v>104000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
+    <row r="221" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>28</v>
       </c>
@@ -6074,7 +6119,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
+    <row r="222" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>29</v>
       </c>
@@ -6085,7 +6130,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
+    <row r="223" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>30</v>
       </c>
@@ -6096,7 +6141,7 @@
         <v>740000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
+    <row r="224" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>31</v>
       </c>
@@ -6107,7 +6152,7 @@
         <v>134000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
+    <row r="225" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>32</v>
       </c>
@@ -6118,7 +6163,7 @@
         <v>534000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
+    <row r="226" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>33</v>
       </c>
@@ -6129,7 +6174,7 @@
         <v>84000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
+    <row r="227" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>34</v>
       </c>
@@ -6140,7 +6185,7 @@
         <v>114000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
+    <row r="228" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>35</v>
       </c>
@@ -6151,7 +6196,7 @@
         <v>101000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
+    <row r="229" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>36</v>
       </c>
@@ -6162,7 +6207,7 @@
         <v>134000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
+    <row r="230" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>37</v>
       </c>
@@ -6173,7 +6218,7 @@
         <v>124000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
+    <row r="231" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>38</v>
       </c>
@@ -6184,7 +6229,7 @@
         <v>124000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
+    <row r="232" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>39</v>
       </c>
@@ -6195,7 +6240,7 @@
         <v>84000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
+    <row r="233" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>40</v>
       </c>
@@ -6206,7 +6251,7 @@
         <v>104000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
+    <row r="234" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>41</v>
       </c>
@@ -6217,7 +6262,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
+    <row r="235" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>42</v>
       </c>
@@ -6228,7 +6273,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
+    <row r="236" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>43</v>
       </c>
@@ -6239,7 +6284,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
+    <row r="237" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>44</v>
       </c>
@@ -6250,7 +6295,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
+    <row r="238" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>45</v>
       </c>
@@ -6261,7 +6306,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
+    <row r="239" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>46</v>
       </c>
@@ -6272,7 +6317,7 @@
         <v>47500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
+    <row r="240" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>47</v>
       </c>
@@ -6283,7 +6328,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
+    <row r="241" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>48</v>
       </c>
@@ -6294,7 +6339,7 @@
         <v>44500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
+    <row r="242" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>49</v>
       </c>
@@ -6305,7 +6350,7 @@
         <v>54500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
+    <row r="243" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>50</v>
       </c>
@@ -6316,7 +6361,7 @@
         <v>50500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
+    <row r="244" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>51</v>
       </c>
@@ -6327,7 +6372,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
+    <row r="245" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>52</v>
       </c>
@@ -6338,7 +6383,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
+    <row r="246" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>53</v>
       </c>
@@ -6349,7 +6394,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
+    <row r="247" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>54</v>
       </c>
@@ -6360,7 +6405,7 @@
         <v>113000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
+    <row r="248" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>55</v>
       </c>
@@ -6371,7 +6416,7 @@
         <v>224000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
+    <row r="249" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>56</v>
       </c>
@@ -6382,7 +6427,7 @@
         <v>79000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
+    <row r="250" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>57</v>
       </c>
@@ -6393,7 +6438,7 @@
         <v>174000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
+    <row r="251" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>58</v>
       </c>
@@ -6404,7 +6449,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
+    <row r="252" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>59</v>
       </c>
@@ -6415,7 +6460,7 @@
         <v>176500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
+    <row r="253" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>60</v>
       </c>
@@ -6426,7 +6471,7 @@
         <v>412250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
+    <row r="254" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>61</v>
       </c>
@@ -6437,7 +6482,7 @@
         <v>344000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
+    <row r="255" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>62</v>
       </c>
@@ -6448,7 +6493,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
+    <row r="256" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>63</v>
       </c>
@@ -6459,7 +6504,7 @@
         <v>104000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
+    <row r="257" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>64</v>
       </c>
@@ -6470,22 +6515,23 @@
         <v>37000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
+    <row r="258" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
+    <row r="259" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
+    <row r="260" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C257" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database/seeders/Produk Bengkel (1).xlsx
+++ b/database/seeders/Produk Bengkel (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bengkel Online\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1CD989-A152-418D-BA6C-4C5966B28F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43230335-51CD-495A-ACD3-96FFB7E35FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="208">
   <si>
     <t>item_id</t>
   </si>
@@ -303,9 +303,6 @@
     <t>VSuper</t>
   </si>
   <si>
-    <t>product_image/22.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">RANTAI 428H - 112L JUPITER MX </t>
   </si>
   <si>
@@ -357,45 +354,30 @@
     <t>SAN-Ei</t>
   </si>
   <si>
-    <t>product_image/28.jpg</t>
-  </si>
-  <si>
     <t>DINAMO KIPAS SEKAI AS PENDEK</t>
   </si>
   <si>
     <t>RES</t>
   </si>
   <si>
-    <t>product_image/29.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dinamo Elektro Motor Maestro  </t>
   </si>
   <si>
     <t>Maestro</t>
   </si>
   <si>
-    <t>product_image/30.jpg</t>
-  </si>
-  <si>
     <t>RS795 Dinamo dc 795 12V 16000rpm DC Motor</t>
   </si>
   <si>
     <t>beeze</t>
   </si>
   <si>
-    <t>product_image/31.jpg</t>
-  </si>
-  <si>
     <t>Electric Motor Single Phase 1/3 HP atau 0,25 KW</t>
   </si>
   <si>
     <t xml:space="preserve">X-Trim </t>
   </si>
   <si>
-    <t>product_image/32.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve"> knalpot racing CLD MONSTER untuk semua motor  matic HONDA</t>
   </si>
   <si>
@@ -438,33 +420,21 @@
     <t>SC Project</t>
   </si>
   <si>
-    <t>product_image/37.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">KNALPOT TSUKIGI RCB / WRC MBER MATIC MIO BEAT VARIO </t>
   </si>
   <si>
-    <t>product_image/38.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">KNALPOT RACING KAWAHARA MATIC MIO </t>
   </si>
   <si>
     <t>KAWAHARA</t>
   </si>
   <si>
-    <t>product_image/39.jpg</t>
-  </si>
-  <si>
     <t>KNALPOT PROLINER RACING MATIC MIO SPORTY BEAT MIO</t>
   </si>
   <si>
     <t>PROLINER</t>
   </si>
   <si>
-    <t>product_image/40.jpg</t>
-  </si>
-  <si>
     <t>Yamalube Motor Oil mesin Matic</t>
   </si>
   <si>
@@ -474,9 +444,6 @@
     <t>Yamalube</t>
   </si>
   <si>
-    <t>product_image/41.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">OLI MPX 2 </t>
   </si>
   <si>
@@ -507,24 +474,15 @@
     <t>Oli Yamalube Sport 1L</t>
   </si>
   <si>
-    <t>product_image/46.jpg</t>
-  </si>
-  <si>
     <t>Oli MPX 1 (Bebek Dan Sport) 800ml</t>
   </si>
   <si>
     <t>AHM Oil</t>
   </si>
   <si>
-    <t>product_image/47.jpg</t>
-  </si>
-  <si>
     <t>Oli Yamalube Silver  800ml</t>
   </si>
   <si>
-    <t>product_image/48.jpg</t>
-  </si>
-  <si>
     <t>ban motor seken tubles merek federal uk 90/90-14</t>
   </si>
   <si>
@@ -561,34 +519,22 @@
     <t>BAN DEPAN METIC BEAT VARIO MIO DLL UKURAN 80/90-14</t>
   </si>
   <si>
-    <t>product_image/53.jpg</t>
-  </si>
-  <si>
     <t>Sepasang Ban Tubles Motor Matic Beat Vario Mio Spacy</t>
   </si>
   <si>
     <t>EPR</t>
   </si>
   <si>
-    <t>product_image/54.jpg</t>
-  </si>
-  <si>
     <t>Sepasang Ban Tubless Motor Matic Beat Mio Vario Spacy Ukuran 80/90</t>
   </si>
   <si>
     <t>RCX</t>
   </si>
   <si>
-    <t>product_image/55.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ban Motor Luar Matic Beat Vario Mio Spacy (Pilihan Ukuran 80/90 , 90/90 Ring 14) </t>
   </si>
   <si>
     <t>RCA</t>
-  </si>
-  <si>
-    <t>product_image/56.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Kunci SOK 46 PC Set Socket (1/4 ") Full Lengkap Socket Tool Kit Pas Ring L Motor Mobil </t>
@@ -1108,8 +1054,8 @@
   </sheetPr>
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G52" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" topLeftCell="E41" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1449,7 @@
         <v>50</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="I10" s="3">
         <v>175000</v>
@@ -1542,7 +1488,7 @@
         <v>50</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="I11" s="3">
         <v>170000</v>
@@ -1581,7 +1527,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="I12" s="3">
         <v>85000</v>
@@ -1620,7 +1566,7 @@
         <v>59</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="I13" s="3">
         <v>90000</v>
@@ -1659,7 +1605,7 @@
         <v>63</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="I14" s="3">
         <v>135000</v>
@@ -1698,7 +1644,7 @@
         <v>50</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="I15" s="3">
         <v>160000</v>
@@ -1737,7 +1683,7 @@
         <v>69</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="I16" s="3">
         <v>280000</v>
@@ -1776,7 +1722,7 @@
         <v>69</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="I17" s="3">
         <v>158000</v>
@@ -1929,7 +1875,7 @@
         <v>31</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>77</v>
@@ -2015,9 +1961,7 @@
       <c r="I23" s="3">
         <v>45000</v>
       </c>
-      <c r="J23" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="J23" s="9"/>
       <c r="K23" s="10">
         <v>44739.5</v>
       </c>
@@ -2037,13 +1981,13 @@
         <v>2</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>69</v>
@@ -2055,7 +1999,7 @@
         <v>50500</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K24" s="10">
         <v>44739.5</v>
@@ -2076,13 +2020,13 @@
         <v>2</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>69</v>
@@ -2094,7 +2038,7 @@
         <v>120000</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K25" s="10">
         <v>44739.5</v>
@@ -2115,25 +2059,25 @@
         <v>2</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="I26" s="3">
         <v>35000</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K26" s="10">
         <v>44739.5</v>
@@ -2154,25 +2098,25 @@
         <v>2</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="I27" s="3">
         <v>44000</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K27" s="10">
         <v>44739.5</v>
@@ -2193,25 +2137,25 @@
         <v>2</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="I28" s="3">
         <v>90000</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K28" s="10">
         <v>44739.5</v>
@@ -2232,26 +2176,24 @@
         <v>2</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="I29" s="3">
         <v>75000</v>
       </c>
-      <c r="J29" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="J29" s="9"/>
       <c r="K29" s="10">
         <v>44739.5</v>
       </c>
@@ -2271,26 +2213,24 @@
         <v>2</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="I30" s="3">
         <v>130000</v>
       </c>
-      <c r="J30" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="J30" s="9"/>
       <c r="K30" s="10">
         <v>44739.5</v>
       </c>
@@ -2310,26 +2250,24 @@
         <v>2</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="I31" s="3">
         <v>726000</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>116</v>
-      </c>
+      <c r="J31" s="9"/>
       <c r="K31" s="10">
         <v>44739.5</v>
       </c>
@@ -2349,26 +2287,24 @@
         <v>2</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="I32" s="3">
         <v>120000</v>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>119</v>
-      </c>
+      <c r="J32" s="9"/>
       <c r="K32" s="10">
         <v>44739.5</v>
       </c>
@@ -2388,26 +2324,24 @@
         <v>2</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="I33" s="3">
         <v>520000</v>
       </c>
-      <c r="J33" s="9" t="s">
-        <v>122</v>
-      </c>
+      <c r="J33" s="9"/>
       <c r="K33" s="10">
         <v>44739.5</v>
       </c>
@@ -2427,25 +2361,25 @@
         <v>2</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="I34" s="3">
         <v>70000</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K34" s="10">
         <v>44739.5</v>
@@ -2466,25 +2400,25 @@
         <v>2</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="I35" s="3">
         <v>100000</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K35" s="10">
         <v>44739.5</v>
@@ -2505,25 +2439,25 @@
         <v>2</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="I36" s="3">
         <v>87000</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K36" s="10">
         <v>44739.5</v>
@@ -2544,25 +2478,25 @@
         <v>2</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="I37" s="3">
         <v>120000</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K37" s="10">
         <v>44739.5</v>
@@ -2583,26 +2517,24 @@
         <v>2</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="I38" s="3">
         <v>110000</v>
       </c>
-      <c r="J38" s="9" t="s">
-        <v>137</v>
-      </c>
+      <c r="J38" s="9"/>
       <c r="K38" s="10">
         <v>44739.5</v>
       </c>
@@ -2622,26 +2554,24 @@
         <v>2</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="I39" s="3">
         <v>110000</v>
       </c>
-      <c r="J39" s="9" t="s">
-        <v>139</v>
-      </c>
+      <c r="J39" s="9"/>
       <c r="K39" s="10">
         <v>44739.5</v>
       </c>
@@ -2661,26 +2591,24 @@
         <v>2</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="I40" s="3">
         <v>70000</v>
       </c>
-      <c r="J40" s="9" t="s">
-        <v>142</v>
-      </c>
+      <c r="J40" s="9"/>
       <c r="K40" s="10">
         <v>44739.5</v>
       </c>
@@ -2700,26 +2628,24 @@
         <v>2</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="I41" s="3">
         <v>90000</v>
       </c>
-      <c r="J41" s="9" t="s">
-        <v>145</v>
-      </c>
+      <c r="J41" s="9"/>
       <c r="K41" s="10">
         <v>44739.5</v>
       </c>
@@ -2739,26 +2665,24 @@
         <v>2</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="I42" s="3">
         <v>40000</v>
       </c>
-      <c r="J42" s="9" t="s">
-        <v>149</v>
-      </c>
+      <c r="J42" s="9"/>
       <c r="K42" s="10">
         <v>44739.5</v>
       </c>
@@ -2778,25 +2702,25 @@
         <v>2</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="I43" s="3">
         <v>40000</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="K43" s="10">
         <v>44739.5</v>
@@ -2817,25 +2741,25 @@
         <v>2</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="I44" s="3">
         <v>38000</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K44" s="10">
         <v>44739.5</v>
@@ -2856,25 +2780,25 @@
         <v>2</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G45" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="I45" s="3">
         <v>38800</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="K45" s="10">
         <v>44739.5</v>
@@ -2895,10 +2819,10 @@
         <v>2</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>80</v>
@@ -2907,13 +2831,13 @@
         <v>69</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="I46" s="3">
         <v>30000</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="K46" s="10">
         <v>44739.5</v>
@@ -2934,26 +2858,24 @@
         <v>2</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G47" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="I47" s="3">
         <v>33500</v>
       </c>
-      <c r="J47" s="9" t="s">
-        <v>160</v>
-      </c>
+      <c r="J47" s="9"/>
       <c r="K47" s="10">
         <v>44739.5</v>
       </c>
@@ -2973,26 +2895,24 @@
         <v>2</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="I48" s="3">
         <v>30000</v>
       </c>
-      <c r="J48" s="9" t="s">
-        <v>163</v>
-      </c>
+      <c r="J48" s="9"/>
       <c r="K48" s="10">
         <v>44739.5</v>
       </c>
@@ -3012,26 +2932,24 @@
         <v>2</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G49" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="I49" s="3">
         <v>30500</v>
       </c>
-      <c r="J49" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="J49" s="9"/>
       <c r="K49" s="10">
         <v>44739.5</v>
       </c>
@@ -3051,10 +2969,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>80</v>
@@ -3063,13 +2981,13 @@
         <v>69</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="I50" s="3">
         <v>40500</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="K50" s="10">
         <v>44739.5</v>
@@ -3090,25 +3008,25 @@
         <v>2</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="I51" s="3">
         <v>36500</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="K51" s="10">
         <v>44739.5</v>
@@ -3129,25 +3047,25 @@
         <v>2</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="I52" s="3">
         <v>20000</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="K52" s="10">
         <v>44739.5</v>
@@ -3168,25 +3086,25 @@
         <v>2</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="I53" s="3">
         <v>40000</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="K53" s="10">
         <v>44739.5</v>
@@ -3207,10 +3125,10 @@
         <v>2</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>80</v>
@@ -3219,14 +3137,12 @@
         <v>69</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="I54" s="3">
         <v>20000</v>
       </c>
-      <c r="J54" s="9" t="s">
-        <v>178</v>
-      </c>
+      <c r="J54" s="9"/>
       <c r="K54" s="10">
         <v>44739.5</v>
       </c>
@@ -3246,26 +3162,24 @@
         <v>2</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="G55" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="I55" s="3">
         <v>99000</v>
       </c>
-      <c r="J55" s="9" t="s">
-        <v>181</v>
-      </c>
+      <c r="J55" s="9"/>
       <c r="K55" s="10">
         <v>44739.5</v>
       </c>
@@ -3285,26 +3199,24 @@
         <v>2</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E56" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F56" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="G56" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="I56" s="3">
         <v>210000</v>
       </c>
-      <c r="J56" s="9" t="s">
-        <v>184</v>
-      </c>
+      <c r="J56" s="9"/>
       <c r="K56" s="10">
         <v>44739.5</v>
       </c>
@@ -3324,26 +3236,24 @@
         <v>2</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="G57" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="I57" s="3">
         <v>65000</v>
       </c>
-      <c r="J57" s="9" t="s">
-        <v>187</v>
-      </c>
+      <c r="J57" s="9"/>
       <c r="K57" s="10">
         <v>44739.5</v>
       </c>
@@ -3363,25 +3273,25 @@
         <v>2</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>69</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="I58" s="3">
         <v>160000</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="K58" s="10">
         <v>44739.5</v>
@@ -3402,10 +3312,10 @@
         <v>2</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>69</v>
@@ -3414,13 +3324,13 @@
         <v>69</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="I59" s="3">
         <v>32000</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="K59" s="10">
         <v>44739.5</v>
@@ -3441,25 +3351,25 @@
         <v>2</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="G60" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="I60" s="3">
         <v>162500</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="K60" s="10">
         <v>44739.5</v>
@@ -3480,25 +3390,25 @@
         <v>2</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="F61" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="H61" s="14" t="s">
         <v>197</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="H61" s="14" t="s">
-        <v>215</v>
       </c>
       <c r="I61" s="3">
         <v>398250</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="K61" s="10">
         <v>44739.5</v>
@@ -3519,25 +3429,25 @@
         <v>2</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="G62" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="I62" s="3">
         <v>330000</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="K62" s="10">
         <v>44739.5</v>
@@ -3558,25 +3468,25 @@
         <v>2</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="G63" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="I63" s="3">
         <v>15000</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="K63" s="10">
         <v>44739.5</v>
@@ -3597,25 +3507,25 @@
         <v>2</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="I64" s="3">
         <v>90000</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="K64" s="10">
         <v>44739.5</v>
@@ -3636,25 +3546,25 @@
         <v>2</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G65" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="I65" s="3">
         <v>23000</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="K65" s="10">
         <v>44739.5</v>
